--- a/기숙사 데이터셋(예시포함).xlsx
+++ b/기숙사 데이터셋(예시포함).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DmuDomitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49E260F-A581-4FB9-888C-BC8EE4D58AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09323E-584F-4F10-B74A-C24C376B0982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4DE952A4-7C04-4DBE-9D4A-6720B2ADFCEA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>여자</t>
   </si>
@@ -368,6 +368,22 @@
   </si>
   <si>
     <t>인천 연수구 컨벤시아대로 160 센트럴파크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 동광로 19길 12 1층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>azs@azc.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok저축은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,7 +616,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -627,13 +643,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4111A88-8882-4B58-99E3-790BFB07B34A}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1596,6 +1615,59 @@
         <v>89</v>
       </c>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>20244444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="23">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1012345678</v>
+      </c>
+      <c r="L12">
+        <v>1098765432</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="15">
+        <v>78895456455</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1606,6 +1678,7 @@
     <hyperlink ref="M9" r:id="rId5" xr:uid="{8CD07E15-84E9-4D85-B35E-1AF389798C99}"/>
     <hyperlink ref="M10" r:id="rId6" xr:uid="{092999A5-F890-4E35-9F88-25A8D6021C3D}"/>
     <hyperlink ref="M11" r:id="rId7" xr:uid="{EB38129D-448B-47D4-BE10-5DCA1D42CE08}"/>
+    <hyperlink ref="M12" r:id="rId8" xr:uid="{5C959A75-430B-4512-8137-01DE1C619E13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
